--- a/biology/Botanique/Ocotea_guianensis/Ocotea_guianensis.xlsx
+++ b/biology/Botanique/Ocotea_guianensis/Ocotea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ocotea guianensis est une espèce d'arbre de la famille des Lauraceae, originaire du nord de l'Amérique du sud. Il est connu en Guyane sous les noms de feuille d’argent [féy lajan], bois d'argent [bwa lajan], cèdre d'argent [sèd-darjan] (créole), ãyãũ'ɨ sili (Wayãpi), wen, wen etni (Palikur), folha-de-prata, louro-branco, louro-seda (Portugais)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ocotea guianensis est une espèce d'arbre de la famille des Lauraceae, originaire du nord de l'Amérique du sud. Il est connu en Guyane sous les noms de feuille d’argent [féy lajan], bois d'argent [bwa lajan], cèdre d'argent [sèd-darjan] (créole), ãyãũ'ɨ sili (Wayãpi), wen, wen etni (Palikur), folha-de-prata, louro-branco, louro-seda (Portugais).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre, aux feuilles lancéolées argentées sur leur face inférieure (en raison de la pilosité), est commun en Guyane dans les forêts secondaires et les recrus forestiers[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre, aux feuilles lancéolées argentées sur leur face inférieure (en raison de la pilosité), est commun en Guyane dans les forêts secondaires et les recrus forestiers.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femmes Créoles et Palikur emploient en bain de siège la décoction des feuilles des jeunes rameaux pour faciliter l'accouchement[1]
-Aublet rapporte en 1775 que le cataplasme des feuilles est utilisé « pour supprimer les tumeurs et les bubons » chez les Indiens Karipuna du bas Oyapock[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femmes Créoles et Palikur emploient en bain de siège la décoction des feuilles des jeunes rameaux pour faciliter l'accouchement
+Aublet rapporte en 1775 que le cataplasme des feuilles est utilisé « pour supprimer les tumeurs et les bubons » chez les Indiens Karipuna du bas Oyapock.
 L'utilisation et la fabrication du gel de feuilles d'argent fait partie des usages traditionnelles et culturelles des populations amérindiennes et afro descendante, il peut être offert ou commercialisé.
-Plusieurs entreprises guyanaises, proposent des produits cosmétiques pour le soin de la peau et des cheveux à base du gel tiré des feuilles de Ocotea guianensis[3].
+Plusieurs entreprises guyanaises, proposent des produits cosmétiques pour le soin de la peau et des cheveux à base du gel tiré des feuilles de Ocotea guianensis.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet décrit l'espèce et propose la diagnose suivante[2] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet décrit l'espèce et propose la diagnose suivante : 
 « L'OCOTE de la Guiane 
 Le tronc de cet arbre s'élève a trente pieds, ſur deux pieds de diamètre. Son écorce eſt griſâtre, ridée &amp; gerſée. Son bois eſt blanc, peu compacte. 
 II pouſſe à ſon ſommet un grand nombre de branches rameuſes, dont celles du centre ſont droites, &amp; celles de la circonférence inclinées &amp; preſque horiſontales. Les branches &amp; les rameaux ſont garnis de feuilles étroites, ovales, terminées par une longue pointe. Elles ſont vertes, luiſantes en deſſus, &amp; couvertes en deſſous d'un duvet très blanc &amp; ſoyeux. Il y a de chaque côte de la feuille en deſſous la marqué de deux plis. Un des plis eſt très court, place d'un côte &amp; au bas de la feuille ; en ſe réuniſſant avec la nervure du milieu, il forme la un angle aigu. L'autre, qui eſt ſur le côte oppoſé, s'étend depuis le bord de la feuille, a un pouce au deſſus de ſon origine, juſques vers ſon extrémité ſupérieure, en s'approchant de la nervure. Leur pédicule eſt fort court, il a à ſa baſe une côte ſaillante qui ſe prolonge juſqu'à la feuille inférieure. Il en eſt de même.des autres. 
